--- a/public/downloads/TESTED-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/TESTED-RAW-SINGLE-LIFTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{55DAF8FF-3969-454A-A9A9-F8FEBD8CAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5CEB49-0B37-41C6-9D7B-F6D1F14DF730}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{55DAF8FF-3969-454A-A9A9-F8FEBD8CAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DA04CC-9986-4D8A-AA6F-50475638CB86}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{172760D4-E3DE-4D25-882B-876521E15F60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{172760D4-E3DE-4D25-882B-876521E15F60}"/>
   </bookViews>
   <sheets>
     <sheet name="MENS OPEN" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="164">
   <si>
     <t>MEN OPEN</t>
   </si>
@@ -399,9 +399,6 @@
     <t>NICOLA ELDING</t>
   </si>
   <si>
-    <t>112.5KG</t>
-  </si>
-  <si>
     <t>WOMEN JUNIORS 13 - 15</t>
   </si>
   <si>
@@ -520,6 +517,24 @@
   </si>
   <si>
     <t>LEGHTON WHITBY</t>
+  </si>
+  <si>
+    <t>75.0KG</t>
+  </si>
+  <si>
+    <t>REBECCA ROUGHTON</t>
+  </si>
+  <si>
+    <t>WOMEN OF IRON</t>
+  </si>
+  <si>
+    <t>SUE DAVIES</t>
+  </si>
+  <si>
+    <t>IMOGEN TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOMEN OF IRON </t>
   </si>
 </sst>
 </file>
@@ -1142,16 +1157,16 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="6">
         <v>45067</v>
       </c>
       <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1407,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D691E06C-D8F3-451C-82F4-08BACE14FA4E}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,6 +1595,18 @@
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
@@ -1624,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="6">
         <v>44695</v>
@@ -1633,7 +1660,7 @@
         <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1643,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="6">
         <v>44695</v>
@@ -1652,7 +1679,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1686,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="6">
         <v>44660</v>
@@ -1753,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="6">
         <v>44695</v>
@@ -1762,7 +1789,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1856,16 +1883,16 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="6">
         <v>44863</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1873,16 +1900,16 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="6">
         <v>44863</v>
       </c>
       <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
         <v>128</v>
-      </c>
-      <c r="G60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2189,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6">
         <v>45025</v>
@@ -2239,16 +2266,16 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="6">
         <v>45067</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2275,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="6">
         <v>44695</v>
@@ -3510,7 +3537,7 @@
         <v>59</v>
       </c>
       <c r="G244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -3529,7 +3556,7 @@
         <v>59</v>
       </c>
       <c r="G245" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -4610,7 +4637,7 @@
         <v>59</v>
       </c>
       <c r="G406" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
@@ -5558,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06338A14-2AEF-425E-A012-7F152DE27D51}">
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="H224" sqref="H224"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5903,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="6">
         <v>45010</v>
@@ -5959,7 +5986,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50" s="6">
         <v>44962</v>
@@ -6025,7 +6052,7 @@
         <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="6">
         <v>44695</v>
@@ -6034,7 +6061,7 @@
         <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -6271,16 +6298,16 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89" s="6">
         <v>45067</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -6375,7 +6402,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F102" s="6">
         <v>44485</v>
@@ -6384,7 +6411,7 @@
         <v>94</v>
       </c>
       <c r="H102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -6431,7 +6458,7 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="6">
         <v>45025</v>
@@ -6451,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" s="6">
         <v>45025</v>
@@ -6460,7 +6487,7 @@
         <v>69</v>
       </c>
       <c r="H109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -6530,7 +6557,7 @@
         <v>38</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F117" s="6">
         <v>44695</v>
@@ -6785,13 +6812,13 @@
         <v>117</v>
       </c>
       <c r="F148" s="6">
-        <v>45010</v>
+        <v>45165</v>
       </c>
       <c r="G148" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="H148" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -6821,6 +6848,18 @@
       <c r="D152" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E152" t="s">
+        <v>161</v>
+      </c>
+      <c r="F152" s="6">
+        <v>45165</v>
+      </c>
+      <c r="G152" t="s">
+        <v>160</v>
+      </c>
+      <c r="H152" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
@@ -7170,7 +7209,7 @@
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F198" s="6">
         <v>45025</v>
@@ -7179,7 +7218,7 @@
         <v>59</v>
       </c>
       <c r="H198" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -7362,7 +7401,7 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F223" s="6">
         <v>45025</v>
@@ -7371,7 +7410,7 @@
         <v>59</v>
       </c>
       <c r="H223" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
@@ -7382,7 +7421,7 @@
         <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F224" s="6">
         <v>45025</v>
@@ -10064,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA40B181-BCAB-4773-908F-FBA5D584CDE9}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10076,7 +10115,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="I1" t="s">
@@ -10299,16 +10338,16 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7">
         <v>45067</v>
       </c>
       <c r="M30" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" t="s">
         <v>156</v>
-      </c>
-      <c r="N30" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -10346,7 +10385,7 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35" s="6">
         <v>44836</v>
@@ -10459,7 +10498,18 @@
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
       <c r="J50" t="s">
         <v>6</v>
       </c>
@@ -10776,7 +10826,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="6">
         <v>44863</v>
@@ -11002,7 +11052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1A1623-92E2-4176-83B3-C158D30B4A4C}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -11279,13 +11329,13 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" s="6">
         <v>44808</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
         <v>90</v>
